--- a/caTissueSuite_v1.2/caTissue release 1.2 - known issues.xlsx
+++ b/caTissueSuite_v1.2/caTissue release 1.2 - known issues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="15480" windowHeight="11640"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$25</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>Bug ID</t>
   </si>
@@ -78,9 +78,6 @@
     <t>If a user fires a query where it has a filter having years "greater than 0", this will return records that include 0 years. The reason being that any duration less than 6 months is rounded off to 0 years.</t>
   </si>
   <si>
-    <t>Ui issues with mac safari 5.0</t>
-  </si>
-  <si>
     <t>Incorrect labels generated for aliquots using Bulk operation upload</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
   </si>
   <si>
     <t>Space provided before/after property value in properties file should be trimmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If any property in caTissueinstall.properties files contains a space after the value, then this can cause issues. For e.g. if the user name contains a space afterwards, the application login doesn’t work. </t>
   </si>
   <si>
     <t>Validation message not shown on specifying incorrect can hold specimen class while creating containers using Bulk operation</t>
@@ -163,15 +157,6 @@
     <t>DE &amp; CaTissue caGrid services not working properly if deployed on the same JBoss.</t>
   </si>
   <si>
-    <t>Since caGRID supports only one service on one jboss, caTissue and DE caGRID services are required to be deployed on two different jboss servers.</t>
-  </si>
-  <si>
-    <t>API program to insert and query DE data doesnt work on https signed set up</t>
-  </si>
-  <si>
-    <t>The caCORE client program which will insert and query the DE data doesnot support HTTPS signed server. Hence caTissue and CA Model wars have to be deployed on HTTP jboss server.</t>
-  </si>
-  <si>
     <t>Component</t>
   </si>
   <si>
@@ -206,19 +191,54 @@
   </si>
   <si>
     <t>caGrid</t>
+  </si>
+  <si>
+    <t>DE creation</t>
+  </si>
+  <si>
+    <t>Exported XMI file name not proper</t>
+  </si>
+  <si>
+    <t>The XMI file is created but the file name is "${relative.filename}" at the root directory of the installable. User will have to change the file name to "model_name.xmi".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problems with creating forms with inherited classes through UI </t>
+  </si>
+  <si>
+    <t>If the model contains inherited classes, then the model should be developed using UML Modeling tool like Enterprise Architect. DE Form Builder UI does not support this feature.</t>
+  </si>
+  <si>
+    <t>Ui issues with Mac safari 5.0</t>
+  </si>
+  <si>
+    <t>Since caGrid supports only one service on one jboss, caTissue and DE caGrid services are required to be deployed on two different jboss servers.</t>
+  </si>
+  <si>
+    <t>API program to insert and query DE data doesn't work on https signed set up</t>
+  </si>
+  <si>
+    <t>The caCORE client program which will insert and query the DE data doesn't support HTTPS signed server. Hence caTissue and CA Model wars have to be deployed on HTTP jboss server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If any property in caTissueInstall.properties files contains a space after the value, then this can cause issues. For e.g. if the user name contains a space afterwards, the application login doesn’t work. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -261,6 +281,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -339,6 +364,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -373,6 +399,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,12 +575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
@@ -561,12 +590,12 @@
     <col min="4" max="4" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -575,194 +604,194 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90">
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5938</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="105">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>15177</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="105">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>17689</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="90">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>18558</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>18388</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="90">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>18385</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>18596</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="90">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>18391</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>19065</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="75">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19107</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>17504</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="135">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10499</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="60">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>18396</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18355</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -771,12 +800,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="75">
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>18398</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -785,26 +814,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>18218</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="45">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18151</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -813,12 +842,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75">
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18420</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -827,54 +856,54 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18138</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="60">
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18138</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18063</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="105">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18089</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -883,26 +912,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="90">
+    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10697</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>10244</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>17</v>
@@ -911,32 +940,63 @@
         <v>18</v>
       </c>
     </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>19890</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>19881</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>